--- a/Docs/TablasDatos-Lab4.xlsx
+++ b/Docs/TablasDatos-Lab4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/2021-20/Laboratorios/Lab 04 - Ordenamientos Iter + Rec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes-my.sharepoint.com/personal/s_forerog2_uniandes_edu_co/Documents/Estructura de Datos y Algoritmos/LabSorts-S04-G02/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9F3EF8E-9153-42A5-8ACF-6285D7DFF156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{D9F3EF8E-9153-42A5-8ACF-6285D7DFF156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A4C7B1A-86A6-42C9-87B3-3FA7B4B924F3}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" activeTab="6" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView minimized="1" xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4-5" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="8">
   <si>
     <t>Insertion Sort [ms]</t>
   </si>
@@ -72,12 +72,15 @@
   <si>
     <t>Tamaño de la muestra (LINKED_LIST)</t>
   </si>
+  <si>
+    <t>None</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +119,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -140,6 +143,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +562,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -623,7 +629,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -711,7 +717,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -756,28 +762,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>5378.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>9276.0400000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>22890.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
+                  <c:v>62906.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>97234.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -874,7 +880,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -919,28 +925,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>35.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>83.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>179.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>270.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>473.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>664.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>996.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1037,7 +1043,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1082,28 +1088,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>39.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>88.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>218.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>312.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>744.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>1296.8699999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>2286.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1199,28 +1205,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>144.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>218.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
+                  <c:v>307.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>531.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>648.44000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1320,7 +1326,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1358,7 +1364,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -1442,7 +1448,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1480,7 +1486,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -1522,7 +1528,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1559,7 +1565,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -1568,7 +1574,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1635,7 +1641,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1732,7 +1738,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1777,28 +1783,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>20.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>8822.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>61218.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>532859.37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>110</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1887,7 +1893,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1932,28 +1938,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>10.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>708.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>2984.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>12911.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
+                  <c:v>35078.120000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>128</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2050,7 +2056,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2095,28 +2101,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>5.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>812.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>2557.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>13229.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>31710.94</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>210</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2213,7 +2219,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2258,28 +2264,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>145.83000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>458.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>2885.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
+                  <c:v>8015.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>20687.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>30479.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2379,7 +2385,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2417,7 +2423,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1833162896"/>
@@ -2501,7 +2507,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2539,7 +2545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="696671312"/>
@@ -2581,7 +2587,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2618,7 +2624,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -2627,7 +2633,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2694,7 +2700,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2781,7 +2787,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2826,28 +2832,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>15.7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>1250</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>60</c:v>
+                  <c:v>5378.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>9276.0400000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>90</c:v>
+                  <c:v>22890.46</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>105</c:v>
+                  <c:v>62906.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>97234.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2936,7 +2942,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2976,33 +2982,21 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$C$13:$C$20</c:f>
+              <c:f>'Datos Lab4-5'!$C$13:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>20.73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>8822.92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>61218.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
+                  <c:v>532859.37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3102,7 +3096,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3140,7 +3134,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3219,7 +3213,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3257,7 +3251,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -3299,7 +3293,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3336,7 +3330,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -3345,7 +3339,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3415,7 +3409,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3502,7 +3496,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3547,28 +3541,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>35.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>83.3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>179.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>270.83</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>473.96</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>664.06</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>996.09</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3657,7 +3651,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3697,33 +3691,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$D$13:$D$20</c:f>
+              <c:f>'Datos Lab4-5'!$D$13:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>10.42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>708.33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>2984.37</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>12911.46</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
+                  <c:v>35078.120000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3823,7 +3808,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3861,7 +3846,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -3940,7 +3925,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3978,7 +3963,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4020,7 +4005,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4057,7 +4042,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4066,7 +4051,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4136,7 +4121,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4223,7 +4208,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4268,28 +4253,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>39.06</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60</c:v>
+                  <c:v>88.54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
+                  <c:v>218.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>312.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>120</c:v>
+                  <c:v>744.79</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>1296.8699999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>160</c:v>
+                  <c:v>2286.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4378,7 +4363,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4418,33 +4403,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos Lab4-5'!$E$13:$E$20</c:f>
+              <c:f>'Datos Lab4-5'!$E$13:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>5.21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>812.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>90</c:v>
+                  <c:v>2557.29</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>13229.17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>31710.94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4544,7 +4520,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4582,7 +4558,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -4661,7 +4637,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4699,7 +4675,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -4741,7 +4717,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4778,7 +4754,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -4787,7 +4763,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4857,7 +4833,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4945,7 +4921,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -4990,28 +4966,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>150</c:v>
+                  <c:v>144.53</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>180</c:v>
+                  <c:v>218.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>210</c:v>
+                  <c:v>307.29000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>240</c:v>
+                  <c:v>531.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>270</c:v>
+                  <c:v>648.44000000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5101,7 +5077,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="es-CO"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5146,28 +5122,28 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>90</c:v>
+                  <c:v>145.83000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>110</c:v>
+                  <c:v>458.33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>130</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>150</c:v>
+                  <c:v>2885.42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>170</c:v>
+                  <c:v>8015.62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>190</c:v>
+                  <c:v>20687.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>210</c:v>
+                  <c:v>30479.17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5267,7 +5243,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5305,7 +5281,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328121328"/>
@@ -5384,7 +5360,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="es-CO"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5422,7 +5398,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1328118000"/>
@@ -5464,7 +5440,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5501,7 +5477,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
 </c:chartSpace>
@@ -8841,7 +8817,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF2A59F4-6CD8-490D-818C-7B3BB3F2B140}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="115" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8852,7 +8828,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8874,7 +8850,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8885,7 +8861,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C0D6BB1E-4928-4857-A0CD-C818D0A5A6F2}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8896,7 +8872,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B3AE6AD4-6EB7-44ED-A987-5D4A68E7E10B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="86" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8907,7 +8883,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661768" cy="6283739"/>
+    <xdr:ext cx="8660296" cy="6281530"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8940,7 +8916,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8973,7 +8949,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8661400" cy="6286500"/>
+    <xdr:ext cx="8656320" cy="6278880"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9006,7 +8982,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9039,7 +9015,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9072,7 +9048,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="8656674" cy="6282070"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -9136,7 +9112,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -9432,23 +9408,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:F20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.17578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.46875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.41015625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.64453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.87890625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.41015625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="8" customFormat="1" ht="27.35" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="27.6">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
@@ -9468,7 +9444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:6">
       <c r="A2" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9477,19 +9453,19 @@
         <v>50</v>
       </c>
       <c r="C2" s="3">
-        <v>15.7</v>
+        <v>0</v>
       </c>
       <c r="D2" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:6">
       <c r="A3" s="5">
         <v>0.05</v>
       </c>
@@ -9498,20 +9474,19 @@
         <v>500</v>
       </c>
       <c r="C3" s="3">
-        <v>30</v>
+        <v>380</v>
       </c>
       <c r="D3" s="3">
-        <f>D2+15</f>
-        <v>19</v>
-      </c>
-      <c r="E3" s="4">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4">
-        <v>90</v>
+        <v>35.159999999999997</v>
+      </c>
+      <c r="E3" s="3">
+        <v>39.06</v>
+      </c>
+      <c r="F3" s="3">
+        <v>31.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6">
       <c r="A4" s="5">
         <v>0.1</v>
       </c>
@@ -9520,20 +9495,19 @@
         <v>1000</v>
       </c>
       <c r="C4" s="3">
-        <v>45</v>
+        <v>1250</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" ref="D4:D9" si="0">D3+10</f>
-        <v>29</v>
+        <v>83.3</v>
       </c>
       <c r="E4" s="4">
-        <v>60</v>
+        <v>88.54</v>
       </c>
       <c r="F4" s="4">
-        <v>120</v>
+        <v>65.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6">
       <c r="A5" s="5">
         <v>0.2</v>
       </c>
@@ -9542,20 +9516,19 @@
         <v>2000</v>
       </c>
       <c r="C5" s="3">
-        <v>60</v>
+        <v>5378.9</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>179.69</v>
       </c>
       <c r="E5" s="4">
-        <v>80</v>
+        <v>218.75</v>
       </c>
       <c r="F5" s="4">
-        <v>150</v>
+        <v>144.53</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
         <v>0.3</v>
       </c>
@@ -9564,20 +9537,19 @@
         <v>3000</v>
       </c>
       <c r="C6" s="3">
-        <v>75</v>
+        <v>9276.0400000000009</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>270.83</v>
       </c>
       <c r="E6" s="4">
-        <v>100</v>
+        <v>312.5</v>
       </c>
       <c r="F6" s="4">
-        <v>180</v>
+        <v>218.75</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:6">
       <c r="A7" s="5">
         <v>0.5</v>
       </c>
@@ -9586,20 +9558,19 @@
         <v>5000</v>
       </c>
       <c r="C7" s="3">
-        <v>90</v>
+        <v>22890.46</v>
       </c>
       <c r="D7" s="3">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>473.96</v>
       </c>
       <c r="E7" s="4">
-        <v>120</v>
+        <v>744.79</v>
       </c>
       <c r="F7" s="4">
-        <v>210</v>
+        <v>307.29000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:6">
       <c r="A8" s="5">
         <v>0.8</v>
       </c>
@@ -9608,20 +9579,19 @@
         <v>8000</v>
       </c>
       <c r="C8" s="3">
-        <v>105</v>
+        <v>62906.25</v>
       </c>
       <c r="D8" s="3">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <v>664.06</v>
       </c>
       <c r="E8" s="4">
-        <v>140</v>
+        <v>1296.8699999999999</v>
       </c>
       <c r="F8" s="4">
-        <v>240</v>
+        <v>531.25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:6">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -9630,20 +9600,19 @@
         <v>10000</v>
       </c>
       <c r="C9" s="3">
-        <v>120</v>
+        <v>97234.37</v>
       </c>
       <c r="D9" s="3">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <v>996.09</v>
       </c>
       <c r="E9" s="4">
-        <v>160</v>
+        <v>2286.46</v>
       </c>
       <c r="F9" s="4">
-        <v>270</v>
+        <v>648.44000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="8" customFormat="1" ht="27.35" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" s="8" customFormat="1" ht="27.6">
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
@@ -9663,7 +9632,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:6">
       <c r="A13" s="5">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -9672,19 +9641,19 @@
         <v>50</v>
       </c>
       <c r="C13" s="3">
-        <v>50</v>
+        <v>20.73</v>
       </c>
       <c r="D13" s="3">
-        <v>35</v>
+        <v>10.42</v>
       </c>
       <c r="E13" s="4">
-        <v>30</v>
+        <v>5.21</v>
       </c>
       <c r="F13" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:6">
       <c r="A14" s="5">
         <v>0.05</v>
       </c>
@@ -9693,20 +9662,19 @@
         <v>500</v>
       </c>
       <c r="C14" s="3">
-        <v>60</v>
+        <v>8822.92</v>
       </c>
       <c r="D14" s="3">
-        <f>D13+43</f>
-        <v>78</v>
+        <v>708.33</v>
       </c>
       <c r="E14" s="4">
-        <v>60</v>
+        <v>812.5</v>
       </c>
       <c r="F14" s="4">
-        <v>90</v>
+        <v>145.83000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:6">
       <c r="A15" s="5">
         <v>0.1</v>
       </c>
@@ -9715,20 +9683,19 @@
         <v>1000</v>
       </c>
       <c r="C15" s="3">
-        <v>70</v>
+        <v>61218.75</v>
       </c>
       <c r="D15" s="3">
-        <f t="shared" ref="D15:D20" si="1">D14+10</f>
-        <v>88</v>
+        <v>2984.37</v>
       </c>
       <c r="E15" s="4">
-        <v>90</v>
+        <v>2557.29</v>
       </c>
       <c r="F15" s="4">
-        <v>110</v>
+        <v>458.33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:6">
       <c r="A16" s="5">
         <v>0.2</v>
       </c>
@@ -9737,20 +9704,19 @@
         <v>2000</v>
       </c>
       <c r="C16" s="3">
-        <v>80</v>
+        <v>532859.37</v>
       </c>
       <c r="D16" s="3">
-        <f t="shared" si="1"/>
-        <v>98</v>
+        <v>12911.46</v>
       </c>
       <c r="E16" s="4">
-        <v>120</v>
+        <v>13229.17</v>
       </c>
       <c r="F16" s="4">
-        <v>130</v>
+        <v>1500</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:6">
       <c r="A17" s="5">
         <v>0.3</v>
       </c>
@@ -9758,21 +9724,20 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>3000</v>
       </c>
-      <c r="C17" s="3">
-        <v>90</v>
+      <c r="C17" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="1"/>
-        <v>108</v>
+        <v>35078.120000000003</v>
       </c>
       <c r="E17" s="4">
-        <v>150</v>
+        <v>31710.94</v>
       </c>
       <c r="F17" s="4">
-        <v>150</v>
+        <v>2885.42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6">
       <c r="A18" s="5">
         <v>0.5</v>
       </c>
@@ -9780,21 +9745,20 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>5000</v>
       </c>
-      <c r="C18" s="3">
-        <v>100</v>
-      </c>
-      <c r="D18" s="3">
-        <f t="shared" si="1"/>
-        <v>118</v>
-      </c>
-      <c r="E18" s="4">
-        <v>180</v>
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F18" s="4">
-        <v>170</v>
+        <v>8015.62</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6">
       <c r="A19" s="5">
         <v>0.8</v>
       </c>
@@ -9802,21 +9766,20 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>8000</v>
       </c>
-      <c r="C19" s="3">
-        <v>110</v>
-      </c>
-      <c r="D19" s="3">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-      <c r="E19" s="4">
-        <v>210</v>
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F19" s="4">
-        <v>190</v>
+        <v>20687.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6">
       <c r="A20" s="5">
         <v>1</v>
       </c>
@@ -9824,19 +9787,21 @@
         <f>Table13[[#This Row],[Porcentaje de la muestra '[pct']]]*10000</f>
         <v>10000</v>
       </c>
-      <c r="C20" s="3">
-        <v>120</v>
-      </c>
-      <c r="D20" s="3">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-      <c r="E20" s="4">
-        <v>240</v>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="F20" s="4">
-        <v>210</v>
-      </c>
+        <v>30479.17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="C22" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10200,7 +10165,22 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3198979-0B27-4D27-8331-28B531282E06}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3198979-0B27-4D27-8331-28B531282E06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="164883f8-7691-4ecf-b54a-664c0d0edefe"/>
+    <ds:schemaRef ds:uri="85e30bcc-d76c-4413-8e4d-2dce22fb0743"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
